--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail7 Features.xlsx
@@ -4858,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,29 +4869,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4912,115 +4910,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5037,72 +5025,66 @@
         <v>1.914128395694729e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.209164122190426</v>
+        <v>1.326837538068643e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.726970287229833</v>
+        <v>1.904993633294895e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.326837538068643e-06</v>
+        <v>0.08557234725889931</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.904993633294895e-06</v>
+        <v>0.3316150207358919</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08557234725889931</v>
+        <v>0.1169979324687016</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3316150207358919</v>
+        <v>1.698912623977129</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1169979324687016</v>
+        <v>1.584728285969429</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.639323095620265</v>
+        <v>4.021632447418341</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.584728285969429</v>
+        <v>3.408287313482381e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.021632447418341</v>
+        <v>39968658.52355732</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.408287313482381e-15</v>
+        <v>2.818135863623697e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>39968658.52355732</v>
+        <v>5.444717388968403</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.818135863623697e-06</v>
+        <v>0.0001686246711213577</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.444717388968403</v>
+        <v>9.937011713310136</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001686246711213577</v>
+        <v>1.165656052802425</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.937011713310136</v>
+        <v>0.01665070855205778</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.165656052802425</v>
+        <v>2.62731241926537</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01665070855205778</v>
+        <v>0.9525667529840721</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.62731241926537</v>
+        <v>1.784685038460106</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9525667529840721</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.784685038460106</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1527568035806744</v>
       </c>
     </row>
@@ -5117,72 +5099,66 @@
         <v>1.597157225003747e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1036870733178887</v>
+        <v>9.814379197310242e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.193501552304375</v>
+        <v>1.918319788143731e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.814379197310242e-07</v>
+        <v>0.06662075306260393</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.918319788143731e-06</v>
+        <v>0.2915882775045385</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06662075306260393</v>
+        <v>0.08925399656759907</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2915882775045385</v>
+        <v>1.70344875197876</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08925399656759907</v>
+        <v>1.579636905010495</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.637182133451206</v>
+        <v>3.772158309374048</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.579636905010495</v>
+        <v>3.874013490544107e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.772158309374048</v>
+        <v>35660162.20356811</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.874013490544107e-15</v>
+        <v>3.177837828509798e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>35660162.20356811</v>
+        <v>4.926378285534881</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.177837828509798e-06</v>
+        <v>0.0001725996460642941</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.926378285534881</v>
+        <v>10.70057103280433</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001725996460642941</v>
+        <v>1.108079811568562</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.70057103280433</v>
+        <v>0.0197630427194643</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.108079811568562</v>
+        <v>2.440747990539344</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0197630427194643</v>
+        <v>0.9527401807337001</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.440747990539344</v>
+        <v>1.781118784917148</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9527401807337001</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.781118784917148</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.154940985509996</v>
       </c>
     </row>
@@ -5197,72 +5173,66 @@
         <v>1.439395744031402e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5464010944622799</v>
+        <v>7.416324784405856e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1265649207423256</v>
+        <v>1.926786127419788e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.416324784405856e-07</v>
+        <v>0.04548298335081074</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.926786127419788e-06</v>
+        <v>0.2473857956025525</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04548298335081074</v>
+        <v>0.06314480586761088</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2473857956025525</v>
+        <v>1.691605136866938</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06314480586761088</v>
+        <v>1.570980226563063</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.623211239590498</v>
+        <v>3.645861566690676</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.570980226563063</v>
+        <v>4.147062699229041e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.645861566690676</v>
+        <v>33310963.52297119</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.147062699229041e-15</v>
+        <v>3.386576806866222e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>33310963.52297119</v>
+        <v>4.601664918403454</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.386576806866222e-06</v>
+        <v>0.0001669297445996512</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4.601664918403454</v>
+        <v>10.57956384572975</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001669297445996512</v>
+        <v>1.096493634909795</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.57956384572975</v>
+        <v>0.01868397409648046</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.096493634909795</v>
+        <v>2.490827705706265</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01868397409648046</v>
+        <v>0.9544881399424762</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.490827705706265</v>
+        <v>1.78215608026119</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9544881399424762</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.78215608026119</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.15802426683289</v>
       </c>
     </row>
@@ -5277,72 +5247,66 @@
         <v>1.371262089713606e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7809446239690576</v>
+        <v>5.751804581429985e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.30335207987914</v>
+        <v>1.931771171193152e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.751804581429985e-07</v>
+        <v>0.02626976281067523</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.931771171193152e-06</v>
+        <v>0.2102654885416408</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02626976281067523</v>
+        <v>0.04483559621621385</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2102654885416408</v>
+        <v>1.682017035188974</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04483559621621385</v>
+        <v>1.577593411596944</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.611531334723335</v>
+        <v>3.625652367394509</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.577593411596944</v>
+        <v>4.193422571095815e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.625652367394509</v>
+        <v>32844136.76770627</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.193422571095815e-15</v>
+        <v>3.427961831344795e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>32844136.76770627</v>
+        <v>4.523601426037645</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.427961831344795e-06</v>
+        <v>0.000162829316939738</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.523601426037645</v>
+        <v>9.174988212421596</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000162829316939738</v>
+        <v>1.382904903402041</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.174988212421596</v>
+        <v>0.01370703844801557</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.382904903402041</v>
+        <v>2.829544426616805</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01370703844801557</v>
+        <v>0.9536615672218127</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.829544426616805</v>
+        <v>1.792718346969039</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9536615672218127</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.792718346969039</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1526401343815618</v>
       </c>
     </row>
@@ -5357,72 +5321,66 @@
         <v>1.347364664446953e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.826566201060479</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2649722285645355</v>
+        <v>1.934243887298744e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>0.01089755927811981</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.934243887298744e-06</v>
+        <v>0.1844829402029961</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01089755927811981</v>
+        <v>0.0341189560884962</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1844829402029961</v>
+        <v>1.681092937422082</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0341189560884962</v>
+        <v>1.563125810862108</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.609247964140435</v>
+        <v>3.633321586810739</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.563125810862108</v>
+        <v>4.175738292366678e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.633321586810739</v>
+        <v>33465126.54964831</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.175738292366678e-15</v>
+        <v>3.367626456928859e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>33465126.54964831</v>
+        <v>4.676470676028739</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.367626456928859e-06</v>
+        <v>0.0001829901899643537</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>4.676470676028739</v>
+        <v>8.845780837651576</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001829901899643537</v>
+        <v>1.756633248407289</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.845780837651576</v>
+        <v>0.0143185868547946</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.756633248407289</v>
+        <v>2.896474064202589</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0143185868547946</v>
+        <v>0.9543243695227482</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.896474064202589</v>
+        <v>1.786162766533393</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9543243695227482</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.786162766533393</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1458629011957343</v>
       </c>
     </row>
@@ -5437,72 +5395,66 @@
         <v>1.342876267733649e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8276165061255123</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2515733922327925</v>
+        <v>1.934887680963578e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.0006632370709481996</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.934887680963578e-06</v>
+        <v>0.1685006310446676</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0006632370709481996</v>
+        <v>0.02837609727188312</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1685006310446676</v>
+        <v>1.687408350822231</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02837609727188312</v>
+        <v>1.549198150470948</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.612799215850108</v>
+        <v>3.653581265247346</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.549198150470948</v>
+        <v>4.129556449804764e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.653581265247346</v>
+        <v>33857071.89090384</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.129556449804764e-15</v>
+        <v>3.342879437820526e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>33857071.89090384</v>
+        <v>4.733715997143714</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.342879437820526e-06</v>
+        <v>0.0001639504089180168</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4.733715997143714</v>
+        <v>9.37928315424009</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001639504089180168</v>
+        <v>1.304637424572417</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.37928315424009</v>
+        <v>0.01442287363321861</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.304637424572417</v>
+        <v>2.803382853389668</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01442287363321861</v>
+        <v>0.9532981271310434</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.803382853389668</v>
+        <v>1.774308445528467</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9532981271310434</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.774308445528467</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.151231279391289</v>
       </c>
     </row>
@@ -5517,72 +5469,66 @@
         <v>1.345689613957606e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8347826330527701</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2559526968454886</v>
+        <v>1.9342039907756e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.008928719201579257</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.9342039907756e-06</v>
+        <v>0.159602042032942</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.008928719201579257</v>
+        <v>0.02554532855758732</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.159602042032942</v>
+        <v>1.687420524037164</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02554532855758732</v>
+        <v>1.544506682986212</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.61216031285397</v>
+        <v>3.682944924596093</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.544506682986212</v>
+        <v>4.063970077840351e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.682944924596093</v>
+        <v>34584470.51889858</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.063970077840351e-15</v>
+        <v>3.275330395696268e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>34584470.51889858</v>
+        <v>4.860856093294596</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.275330395696268e-06</v>
+        <v>0.0001677308827197365</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4.860856093294596</v>
+        <v>10.6078654319795</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001677308827197365</v>
+        <v>1.107195977726604</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.6078654319795</v>
+        <v>0.01887422100706061</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.107195977726604</v>
+        <v>2.520580430113825</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01887422100706061</v>
+        <v>0.9528837499874006</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.520580430113825</v>
+        <v>1.791452825482353</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9528837499874006</v>
+        <v>14</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.791452825482353</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1558927444825654</v>
       </c>
     </row>
@@ -5597,72 +5543,66 @@
         <v>1.350435902893593e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8566684101301475</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2514268846518659</v>
+        <v>1.932604646835899e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.01437486318338412</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.932604646835899e-06</v>
+        <v>0.1553109265206537</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01437486318338412</v>
+        <v>0.02432525592037623</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1553109265206537</v>
+        <v>1.687869541372801</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02432525592037623</v>
+        <v>1.532607165649375</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.612064580433076</v>
+        <v>3.701060666086848</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.532607165649375</v>
+        <v>4.024283264786761e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.701060666086848</v>
+        <v>34984163.42915621</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.024283264786761e-15</v>
+        <v>3.240842829147478e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>34984163.42915621</v>
+        <v>4.925286849350576</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.240842829147478e-06</v>
+        <v>0.0001673780497920168</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>4.925286849350576</v>
+        <v>10.71726797466533</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001673780497920168</v>
+        <v>1.087229366905236</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.71726797466533</v>
+        <v>0.01922501482032802</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.087229366905236</v>
+        <v>2.479245184192862</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01922501482032802</v>
+        <v>0.9535523153797822</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.479245184192862</v>
+        <v>1.791786013013962</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9535523153797822</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.791786013013962</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1564249904800587</v>
       </c>
     </row>
@@ -5677,72 +5617,66 @@
         <v>1.355078677287881e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.890328161638692</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2286454187351317</v>
+        <v>1.930405784616568e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.01784745475586986</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.930405784616568e-06</v>
+        <v>0.1530618244694243</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01784745475586986</v>
+        <v>0.02374524656017378</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1530618244694243</v>
+        <v>1.689421102623448</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02374524656017378</v>
+        <v>1.492021682156329</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.611908597693218</v>
+        <v>3.732578788860466</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.492021682156329</v>
+        <v>3.956607618604765e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.732578788860466</v>
+        <v>34983969.16235124</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.956607618604765e-15</v>
+        <v>3.246885155211573e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>34983969.16235124</v>
+        <v>4.84240540818439</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.246885155211573e-06</v>
+        <v>0.0001611381395854211</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.84240540818439</v>
+        <v>10.14843539769807</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001611381395854211</v>
+        <v>1.187417114225134</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.14843539769807</v>
+        <v>0.01659573640268833</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.187417114225134</v>
+        <v>2.729371893002198</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01659573640268833</v>
+        <v>0.9544123007786643</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.729371893002198</v>
+        <v>1.779595659125185</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9544123007786643</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.779595659125185</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1535276734198938</v>
       </c>
     </row>
@@ -5757,72 +5691,66 @@
         <v>1.358718990560735e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.9327083027514131</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.1855261929863228</v>
+        <v>1.927823399359624e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.02000822501065114</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.927823399359624e-06</v>
+        <v>0.1516416032360012</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02000822501065114</v>
+        <v>0.02339483961722473</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1516416032360012</v>
+        <v>1.680902971656606</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02339483961722473</v>
+        <v>1.454436525109165</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.60613206898797</v>
+        <v>3.808696487791746</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.454436525109165</v>
+        <v>3.800040450297397e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.808696487791746</v>
+        <v>34765004.1346392</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.800040450297397e-15</v>
+        <v>3.216372721998514e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>34765004.1346392</v>
+        <v>4.592749835882044</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.216372721998514e-06</v>
+        <v>0.0001917866674385893</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4.592749835882044</v>
+        <v>10.25408834705822</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001917866674385893</v>
+        <v>1.578808866910151</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.25408834705822</v>
+        <v>0.0201656638077821</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.578808866910151</v>
+        <v>2.863825131584985</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0201656638077821</v>
+        <v>0.9525589662953255</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.863825131584985</v>
+        <v>1.803894221063083</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9525589662953255</v>
+        <v>14</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.803894221063083</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1514444476110104</v>
       </c>
     </row>
@@ -5837,72 +5765,66 @@
         <v>1.360536065571874e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9826885474788345</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.1193887564595868</v>
+        <v>1.925009049065547e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.02123478806757865</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.925009049065547e-06</v>
+        <v>0.1507338078023533</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02123478806757865</v>
+        <v>0.02317071970338544</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1507338078023533</v>
+        <v>1.684205181206174</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02317071970338544</v>
+        <v>1.410156089840179</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.611352240267863</v>
+        <v>3.987101999365414</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.410156089840179</v>
+        <v>3.457145463182608e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.987101999365414</v>
+        <v>37942212.09762943</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.457145463182608e-15</v>
+        <v>2.948519080089313e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>37942212.09762943</v>
+        <v>4.97694622374872</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.948519080089313e-06</v>
+        <v>0.0002321296663155886</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4.97694622374872</v>
+        <v>11.36696273540327</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002321296663155886</v>
+        <v>1.542271549692826</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.36696273540327</v>
+        <v>0.02999297320890183</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.542271549692826</v>
+        <v>2.757730497351307</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02999297320890183</v>
+        <v>0.9531219052337228</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.757730497351307</v>
+        <v>1.802096799749951</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9531219052337228</v>
+        <v>14</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.802096799749951</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1660811951935099</v>
       </c>
     </row>
@@ -5917,72 +5839,66 @@
         <v>1.359399157960818e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.040806901144174</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.02358861052354211</v>
+        <v>1.922069940121371e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.02188828960892111</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.922069940121371e-06</v>
+        <v>0.1503491623213828</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02188828960892111</v>
+        <v>0.02308196136851028</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1503491623213828</v>
+        <v>1.724686752572008</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02308196136851028</v>
+        <v>1.508267894989272</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.660485919361397</v>
+        <v>3.551598332384827</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.508267894989272</v>
+        <v>3.277167075532621e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.551598332384827</v>
+        <v>39616452.15040535</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.277167075532621e-15</v>
+        <v>2.86461305675956e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>39616452.15040535</v>
+        <v>5.143393390702613</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.86461305675956e-06</v>
+        <v>0.0001989758881640927</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.143393390702613</v>
+        <v>13.63318245474224</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001989758881640927</v>
+        <v>1.075060050033631</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.63318245474224</v>
+        <v>0.03698238759085027</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.075060050033631</v>
+        <v>2.654216006717988</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03698238759085027</v>
+        <v>0.9560851167873986</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.654216006717988</v>
+        <v>1.763615485525132</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9560851167873986</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.763615485525132</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1983045051966148</v>
       </c>
     </row>
@@ -5997,72 +5913,66 @@
         <v>1.353764969191014e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.108423088042531</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.1142473035065343</v>
+        <v>1.919061019135868e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.02243450886381973</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.919061019135868e-06</v>
+        <v>0.1504408152872398</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02243450886381973</v>
+        <v>0.02313131375258927</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1504408152872398</v>
+        <v>1.802800394386268</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02313131375258927</v>
+        <v>1.5264098291823</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.755615286303076</v>
+        <v>3.36437271725584</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.5264098291823</v>
+        <v>3.703143372892358e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.36437271725584</v>
+        <v>34248417.57769679</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.703143372892358e-15</v>
+        <v>3.408375887566673e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>34248417.57769679</v>
+        <v>4.343617226474866</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.408375887566673e-06</v>
+        <v>0.0002153659260807567</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.343617226474866</v>
+        <v>13.7190298086023</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002153659260807567</v>
+        <v>0.9639361259655428</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.7190298086023</v>
+        <v>0.04053440405980468</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.9639361259655428</v>
+        <v>2.23133963729163</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.04053440405980468</v>
+        <v>0.9590720631441979</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.23133963729163</v>
+        <v>1.634459013404058</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9590720631441979</v>
+        <v>13</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.634459013404058</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.186177080040031</v>
       </c>
     </row>
@@ -6077,72 +5987,66 @@
         <v>1.341428692067692e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.186743568431508</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.3136981092624671</v>
+        <v>1.915959931922114e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.02384393423669305</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.915959931922114e-06</v>
+        <v>0.1498182100509691</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02384393423669305</v>
+        <v>0.02300515064094857</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1498182100509691</v>
+        <v>1.755813894817317</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02300515064094857</v>
+        <v>1.46430308000924</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.698412743577248</v>
+        <v>3.57430335590328</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.46430308000924</v>
+        <v>3.074997318320304e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.57430335590328</v>
+        <v>43503052.78345408</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.074997318320304e-15</v>
+        <v>2.62309785414924e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>43503052.78345408</v>
+        <v>5.819480399430311</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.62309785414924e-06</v>
+        <v>0.0002350761868098067</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.819480399430311</v>
+        <v>13.32797983570594</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002350761868098067</v>
+        <v>1.009443756123788</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.32797983570594</v>
+        <v>0.04175776937523405</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.009443756123788</v>
+        <v>2.124012550599599</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04175776937523405</v>
+        <v>0.9565996454121404</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.124012550599599</v>
+        <v>1.681965070282653</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9565996454121404</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.681965070282653</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1691251810381373</v>
       </c>
     </row>
@@ -6157,72 +6061,66 @@
         <v>1.317971964722708e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.277235735359983</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.6077947835269675</v>
+        <v>1.912516865176048e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.02850296719386976</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.912516865176048e-06</v>
+        <v>0.1436751417776241</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02850296719386976</v>
+        <v>0.02143959703022662</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1436751417776241</v>
+        <v>1.750226171270385</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02143959703022662</v>
+        <v>1.550108416458146</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.687957346837389</v>
+        <v>3.408046541482689</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.550108416458146</v>
+        <v>3.033806559564937e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.408046541482689</v>
+        <v>44499872.02516966</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.033806559564937e-15</v>
+        <v>2.564522035348603e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>44499872.02516966</v>
+        <v>6.007660885299856</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.564522035348603e-06</v>
+        <v>0.0002569687210584921</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>6.007660885299856</v>
+        <v>11.36233608553283</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002569687210584921</v>
+        <v>1.328015621493121</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.36233608553283</v>
+        <v>0.03317535090417703</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.328015621493121</v>
+        <v>2.325914918280277</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03317535090417703</v>
+        <v>0.957897004980956</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.325914918280277</v>
+        <v>1.779725331713401</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.957897004980956</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.779725331713401</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1436695203523923</v>
       </c>
     </row>
@@ -6237,72 +6135,66 @@
         <v>1.275384191346318e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.372920460873748</v>
+        <v>4.859852483283578e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.014464535572302</v>
+        <v>1.908334347279928e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.859852483283578e-07</v>
+        <v>-0.03603618349369959</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.908334347279928e-06</v>
+        <v>0.1337810315878326</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03603618349369959</v>
+        <v>0.0191846995922458</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1337810315878326</v>
+        <v>1.76204091412935</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0191846995922458</v>
+        <v>1.548063550965666</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.698924299170018</v>
+        <v>3.243790378782279</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.548063550965666</v>
+        <v>3.348831972421938e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.243790378782279</v>
+        <v>40391463.04407038</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.348831972421938e-15</v>
+        <v>2.833183719854138e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>40391463.04407038</v>
+        <v>5.463519858627868</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.833183719854138e-06</v>
+        <v>0.0002269623183708238</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.463519858627868</v>
+        <v>10.47047309441609</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002269623183708238</v>
+        <v>1.434097526509287</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.47047309441609</v>
+        <v>0.0248820620809334</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.434097526509287</v>
+        <v>2.581802470062075</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0248820620809334</v>
+        <v>0.9567287956495841</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.581802470062075</v>
+        <v>1.771579312064295</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9567287956495841</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.771579312064295</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1377054869280526</v>
       </c>
     </row>
@@ -6679,7 +6571,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.266989122007757</v>
+        <v>1.257588349545604</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.935189401142115</v>
@@ -6768,7 +6660,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.272696530755291</v>
+        <v>1.263669766113626</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.926531076045713</v>
@@ -6857,7 +6749,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.286682928822671</v>
+        <v>1.274252896333474</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.001709994138234</v>
@@ -6946,7 +6838,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.28174169010323</v>
+        <v>1.269981477558178</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.98351992875887</v>
@@ -7035,7 +6927,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.28830638193055</v>
+        <v>1.278547972190172</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.963282496890808</v>
@@ -7124,7 +7016,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.291153017853511</v>
+        <v>1.281346931119784</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.035228927319573</v>
@@ -7213,7 +7105,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.284959338600572</v>
+        <v>1.277909957731794</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.936189561482159</v>
@@ -7302,7 +7194,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.297719406369393</v>
+        <v>1.290641800941033</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.949894775239461</v>
@@ -7391,7 +7283,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.296626488687727</v>
+        <v>1.292567054940599</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.931612361577348</v>
@@ -7480,7 +7372,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.296775128731644</v>
+        <v>1.29460505259599</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.946757361684945</v>
@@ -7569,7 +7461,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.294629320479252</v>
+        <v>1.293233002046302</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.847962573068966</v>
@@ -7658,7 +7550,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.312804661183542</v>
+        <v>1.309975093394109</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.849259617620346</v>
@@ -7747,7 +7639,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.338422181496786</v>
+        <v>1.337426169912254</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.772790047042342</v>
@@ -7836,7 +7728,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.366870734414125</v>
+        <v>1.373506713537838</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.251675172042033</v>
@@ -7925,7 +7817,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.362348109111955</v>
+        <v>1.366938013724712</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.405472944883245</v>
@@ -8014,7 +7906,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.364240621836017</v>
+        <v>1.369403876762232</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.378920676647432</v>
@@ -8103,7 +7995,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.378794610191385</v>
+        <v>1.380316695318227</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.480262627518111</v>
@@ -8192,7 +8084,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.388272056494856</v>
+        <v>1.358717958234375</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.949074782246704</v>
@@ -8281,7 +8173,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.377471792687835</v>
+        <v>1.346764926249461</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.956791754776795</v>
@@ -8370,7 +8262,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.29748850097458</v>
+        <v>1.258631084217694</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.802404277146843</v>
@@ -8459,7 +8351,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.277344362263203</v>
+        <v>1.249994587047539</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.788503632483055</v>
@@ -8548,7 +8440,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.277605154526674</v>
+        <v>1.248345406390215</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.79760470077411</v>
@@ -8637,7 +8529,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.279434649018748</v>
+        <v>1.243798736445449</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.811640790455724</v>
@@ -8726,7 +8618,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.289152788042745</v>
+        <v>1.253641077772906</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.79400048097041</v>
@@ -8815,7 +8707,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.294162052891815</v>
+        <v>1.259609567554703</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.799520103229132</v>
@@ -8904,7 +8796,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.300172119301449</v>
+        <v>1.267655242845017</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.808941625469859</v>
@@ -8993,7 +8885,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.301050936953555</v>
+        <v>1.267780624607324</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.812619721078526</v>
@@ -9082,7 +8974,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.30146580480113</v>
+        <v>1.269565556781588</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.80743561730588</v>
@@ -9171,7 +9063,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.29985392299694</v>
+        <v>1.265480829645453</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.826986635547316</v>
@@ -9260,7 +9152,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.293470925333225</v>
+        <v>1.261129644629613</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.825897923578644</v>
@@ -9349,7 +9241,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.296111078451728</v>
+        <v>1.26541355174152</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.809345231921108</v>
@@ -9438,7 +9330,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.292161355791622</v>
+        <v>1.262438264557523</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.828391680005377</v>
@@ -9527,7 +9419,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.281978487195994</v>
+        <v>1.26546015986147</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.768696809428083</v>
@@ -9616,7 +9508,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.292102331408123</v>
+        <v>1.278699999275786</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.704219198425175</v>
@@ -9705,7 +9597,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.408175694012741</v>
+        <v>1.393325344524712</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.973444792110792</v>
@@ -9794,7 +9686,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.432503348243001</v>
+        <v>1.41425836239217</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.418389940565219</v>
@@ -9883,7 +9775,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.410318613323207</v>
+        <v>1.40560336972792</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.540771125715554</v>
@@ -9972,7 +9864,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.396424470848419</v>
+        <v>1.403152231544484</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.451469245790269</v>
@@ -10061,7 +9953,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.386497715026581</v>
+        <v>1.393619463858375</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.584995474022739</v>
@@ -10150,7 +10042,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.352707999387953</v>
+        <v>1.329600124759026</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.605673704324556</v>
@@ -10239,7 +10131,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.341372065100359</v>
+        <v>1.315069671945163</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.650422544611122</v>
@@ -10328,7 +10220,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.321200873749193</v>
+        <v>1.299131605613749</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.662910412991151</v>
@@ -10417,7 +10309,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.313772817169356</v>
+        <v>1.295515041541574</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.6766997789836</v>
@@ -10506,7 +10398,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.310162412312421</v>
+        <v>1.294522793923895</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.720184971636987</v>
@@ -10595,7 +10487,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.326555528556225</v>
+        <v>1.311002084585527</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.682202870684569</v>
@@ -10684,7 +10576,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.330547968451679</v>
+        <v>1.316692732096453</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.677290247130255</v>
@@ -10773,7 +10665,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.330130907343105</v>
+        <v>1.315976038477783</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.659524953260597</v>
@@ -10862,7 +10754,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.32219590381375</v>
+        <v>1.309910459855498</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.67004216162609</v>
@@ -10951,7 +10843,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.325092179351009</v>
+        <v>1.31257216630965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.668848891873076</v>
@@ -11040,7 +10932,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.330551618712036</v>
+        <v>1.317681175494935</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.668279033756706</v>
@@ -11129,7 +11021,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.328947828238534</v>
+        <v>1.312536774974262</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.613136914805938</v>
@@ -11218,7 +11110,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.338828150670967</v>
+        <v>1.320895419710948</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.651182723645489</v>
@@ -11307,7 +11199,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.354104407962185</v>
+        <v>1.333967511200671</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.651567308385193</v>
@@ -11396,7 +11288,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.351829209669148</v>
+        <v>1.329031063589079</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.630572550707108</v>
@@ -11485,7 +11377,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.391543220451365</v>
+        <v>1.380355433014661</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.18193161648452</v>
@@ -11574,7 +11466,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.364298184826936</v>
+        <v>1.362351389430037</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.195069392717051</v>
@@ -11663,7 +11555,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.382862734907491</v>
+        <v>1.383279036887282</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.115236068002777</v>
@@ -11752,7 +11644,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.389052991473728</v>
+        <v>1.378534641792149</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.075912093230021</v>
@@ -11841,7 +11733,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.385500073548878</v>
+        <v>1.385756768469341</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.794119719173727</v>
@@ -11930,7 +11822,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.289769366764817</v>
+        <v>1.278501922936958</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.591281235612447</v>
@@ -12019,7 +11911,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.251445245809893</v>
+        <v>1.226350914877372</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.615828444207283</v>
@@ -12305,7 +12197,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.313411194809342</v>
+        <v>1.268405033343258</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.80344400055017</v>
@@ -12394,7 +12286,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312935664395092</v>
+        <v>1.265938634252775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.792965370495394</v>
@@ -12483,7 +12375,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.311145481859458</v>
+        <v>1.265801117733025</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.821559831381417</v>
@@ -12572,7 +12464,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.309745670667383</v>
+        <v>1.261422869716632</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.794886486740196</v>
@@ -12661,7 +12553,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.310519511544012</v>
+        <v>1.264947882636752</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.79137546639446</v>
@@ -12750,7 +12642,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.325844078755432</v>
+        <v>1.277151079461211</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.844098423598654</v>
@@ -12839,7 +12731,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.32213965101532</v>
+        <v>1.276612890365946</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.77040510057144</v>
@@ -12928,7 +12820,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.327670859294002</v>
+        <v>1.278440109152829</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.689131326807515</v>
@@ -13017,7 +12909,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.333620597355863</v>
+        <v>1.285961493848061</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.733235358140774</v>
@@ -13106,7 +12998,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.318517336728006</v>
+        <v>1.276236639885751</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.728527278966165</v>
@@ -13195,7 +13087,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.302158740927877</v>
+        <v>1.263041137880996</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.749856484151352</v>
@@ -13284,7 +13176,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.312253827404056</v>
+        <v>1.265807625047457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.702402668123821</v>
@@ -13373,7 +13265,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.336464841792114</v>
+        <v>1.284254322114659</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.633500871810458</v>
@@ -13462,7 +13354,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.377836564742823</v>
+        <v>1.319406260160452</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.739426017782332</v>
@@ -13551,7 +13443,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.367778703852356</v>
+        <v>1.309754478213939</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.770037421546894</v>
@@ -13640,7 +13532,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.354739764250882</v>
+        <v>1.293595851494652</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.787339388634004</v>
@@ -13729,7 +13621,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.36210115261852</v>
+        <v>1.298202004406054</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.32889111274732</v>
@@ -13818,7 +13710,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.377413534986157</v>
+        <v>1.289358342666522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.922525385043121</v>
@@ -13907,7 +13799,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.365163655351371</v>
+        <v>1.287219654279055</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.907562955226554</v>
@@ -13996,7 +13888,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.284627382058253</v>
+        <v>1.209603854300875</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.76454360171417</v>
@@ -14085,7 +13977,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.268604059056057</v>
+        <v>1.206347632476943</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.760299829590101</v>
@@ -14174,7 +14066,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.266296091600118</v>
+        <v>1.203827208380904</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.777809389351602</v>
@@ -14263,7 +14155,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.265444823381047</v>
+        <v>1.201546529837848</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.783618899810273</v>
@@ -14352,7 +14244,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.26484466920392</v>
+        <v>1.202286084142471</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.788188001953606</v>
@@ -14441,7 +14333,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.269530437909904</v>
+        <v>1.205704183883662</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.753261690692864</v>
@@ -14530,7 +14422,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.264658997378737</v>
+        <v>1.201894265680249</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.791806921846469</v>
@@ -14619,7 +14511,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.261876638278039</v>
+        <v>1.202939855678062</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.788161431554512</v>
@@ -14708,7 +14600,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.265176638765353</v>
+        <v>1.208367750546446</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.799392799110835</v>
@@ -14797,7 +14689,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.253358329540006</v>
+        <v>1.198914620978722</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.804650371619172</v>
@@ -14886,7 +14778,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.255684665489599</v>
+        <v>1.200748966170408</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.784060926293738</v>
@@ -14975,7 +14867,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.259089460086526</v>
+        <v>1.204647366243349</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.796096215275085</v>
@@ -15064,7 +14956,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.250106247031518</v>
+        <v>1.197894343626504</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.808018890198079</v>
@@ -15153,7 +15045,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.229323166784749</v>
+        <v>1.189185279430416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.754403181999328</v>
@@ -15242,7 +15134,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.227354908272814</v>
+        <v>1.187409573940672</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.700176540956802</v>
@@ -15331,7 +15223,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.303454450539563</v>
+        <v>1.255613490271852</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.784632774185202</v>
@@ -15420,7 +15312,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.306934927869811</v>
+        <v>1.261775559824424</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.003146002390943</v>
@@ -15509,7 +15401,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.301753002229322</v>
+        <v>1.257973771607615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.055260870768162</v>
@@ -15598,7 +15490,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.303125233196013</v>
+        <v>1.262253532911922</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.015143174543573</v>
@@ -15687,7 +15579,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.293553661863315</v>
+        <v>1.253501667886952</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.062387663353706</v>
@@ -15776,7 +15668,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.285070426299603</v>
+        <v>1.235497144924592</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.525158977196311</v>
@@ -15865,7 +15757,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.283744796565461</v>
+        <v>1.234914316613223</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.593932621621742</v>
@@ -15954,7 +15846,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.275494476235968</v>
+        <v>1.230903728090507</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.597088127796863</v>
@@ -16043,7 +15935,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.261377664625444</v>
+        <v>1.217706101812775</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.619320145021247</v>
@@ -16132,7 +16024,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.26865601451656</v>
+        <v>1.22478200617357</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.592233643879858</v>
@@ -16221,7 +16113,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.273347595513385</v>
+        <v>1.230298652367655</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.595007845615974</v>
@@ -16310,7 +16202,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.274708270781694</v>
+        <v>1.233688803493572</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.573218474745112</v>
@@ -16399,7 +16291,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.289641346056427</v>
+        <v>1.244962066884135</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.558689711706466</v>
@@ -16488,7 +16380,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.291742743104031</v>
+        <v>1.246653929444335</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.583405326610596</v>
@@ -16577,7 +16469,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.282589740184582</v>
+        <v>1.236612295937953</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.590316813591472</v>
@@ -16666,7 +16558,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.286323084497324</v>
+        <v>1.240033101977489</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.595099203416496</v>
@@ -16755,7 +16647,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.272867449271964</v>
+        <v>1.227377425423628</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.592662743740523</v>
@@ -16844,7 +16736,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.272980000281013</v>
+        <v>1.225307137993317</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.605645965226419</v>
@@ -16933,7 +16825,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.277674403416095</v>
+        <v>1.226614021425064</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.614512938251393</v>
@@ -17022,7 +16914,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.279075381721385</v>
+        <v>1.225198712861295</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.577432067379957</v>
@@ -17111,7 +17003,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.284775467940158</v>
+        <v>1.227979551414049</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.00222329880064</v>
@@ -17200,7 +17092,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.269891595974602</v>
+        <v>1.220939320925748</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.948224148667459</v>
@@ -17289,7 +17181,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.26445096209667</v>
+        <v>1.213581241415826</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.94552939109057</v>
@@ -17378,7 +17270,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.282881880522044</v>
+        <v>1.225633082706324</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.034652517379239</v>
@@ -17467,7 +17359,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.295328975220607</v>
+        <v>1.228686588458847</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.687215023229481</v>
@@ -17556,7 +17448,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.2536944857145</v>
+        <v>1.192797626816563</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.66345308852163</v>
@@ -17645,7 +17537,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.233184974112565</v>
+        <v>1.179517999379461</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.619066064079601</v>
@@ -17931,7 +17823,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.360949236191027</v>
+        <v>1.339193098102001</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.798597429292027</v>
@@ -18020,7 +17912,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.36107761957427</v>
+        <v>1.336723674257255</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.777674538432785</v>
@@ -18109,7 +18001,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.366887172486422</v>
+        <v>1.342660028721693</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.785085841186603</v>
@@ -18198,7 +18090,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.36752406577992</v>
+        <v>1.343696940775591</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.803917085661064</v>
@@ -18287,7 +18179,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.365033000146605</v>
+        <v>1.345218170950995</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.795298056603059</v>
@@ -18376,7 +18268,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.379815749088915</v>
+        <v>1.358271618009464</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.867417445074251</v>
@@ -18465,7 +18357,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.376096764401185</v>
+        <v>1.354645884692253</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.784062311610808</v>
@@ -18554,7 +18446,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.384336532645005</v>
+        <v>1.357870509684783</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.695095483150379</v>
@@ -18643,7 +18535,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.39475799700714</v>
+        <v>1.369853523341177</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.746583716542258</v>
@@ -18732,7 +18624,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.397802030387282</v>
+        <v>1.375581402980373</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.684815722591777</v>
@@ -18821,7 +18713,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.399090484278825</v>
+        <v>1.382788480821041</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.7466016508167</v>
@@ -18910,7 +18802,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.404066704206588</v>
+        <v>1.386267543163479</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.687577700585673</v>
@@ -18999,7 +18891,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.440578372982235</v>
+        <v>1.422228470005338</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.608272383881877</v>
@@ -19088,7 +18980,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.531980777863982</v>
+        <v>1.50864837474478</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.803066920846987</v>
@@ -19177,7 +19069,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534996582830891</v>
+        <v>1.508913787215728</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.212653421148781</v>
@@ -19266,7 +19158,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.539466172881347</v>
+        <v>1.506324928384194</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.930581198783926</v>
@@ -19355,7 +19247,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.515436944680939</v>
+        <v>1.484272510222828</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.427300212397857</v>
@@ -19444,7 +19336,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49939511727648</v>
+        <v>1.419065639274205</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.755626064374396</v>
@@ -19533,7 +19425,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.466209678334647</v>
+        <v>1.397385093085209</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.749810082463811</v>
@@ -19622,7 +19514,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.335171349030686</v>
+        <v>1.272795885137405</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.707480035524739</v>
@@ -19711,7 +19603,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.307093214436622</v>
+        <v>1.261179014976968</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.723941422902183</v>
@@ -19800,7 +19692,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.305482033835303</v>
+        <v>1.260539674408906</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.718010250242795</v>
@@ -19889,7 +19781,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.304318255475042</v>
+        <v>1.257129898813777</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.718498685640748</v>
@@ -19978,7 +19870,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.304539591920821</v>
+        <v>1.257117616277155</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.726475306921142</v>
@@ -20067,7 +19959,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.307790963496134</v>
+        <v>1.260230748825842</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.726371604048256</v>
@@ -20156,7 +20048,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.311385250375054</v>
+        <v>1.263960768106356</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.726270389067271</v>
@@ -20245,7 +20137,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.311274029326932</v>
+        <v>1.263453025137001</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.720830898696794</v>
@@ -20334,7 +20226,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.310393258391111</v>
+        <v>1.263203024821112</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.718282386630926</v>
@@ -20423,7 +20315,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.309889045076442</v>
+        <v>1.261651183433085</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.734190429539689</v>
@@ -20512,7 +20404,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.311487540813507</v>
+        <v>1.262058831356123</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.732121442629436</v>
@@ -20601,7 +20493,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.312082544189192</v>
+        <v>1.261178753742433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.741513123509032</v>
@@ -20690,7 +20582,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.314072034788339</v>
+        <v>1.264005403945096</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.734226491039928</v>
@@ -20779,7 +20671,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.298622133162564</v>
+        <v>1.265556492765342</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.67218018614455</v>
@@ -20868,7 +20760,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.301374867715939</v>
+        <v>1.270023460255318</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.623639834342583</v>
@@ -20957,7 +20849,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.472466119138846</v>
+        <v>1.416206189915783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.862211045729709</v>
@@ -21046,7 +20938,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.494138324248431</v>
+        <v>1.4366406829139</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.491020809072311</v>
@@ -21135,7 +21027,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.488360437650108</v>
+        <v>1.436893151397629</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.453837343712041</v>
@@ -21224,7 +21116,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.498773386830902</v>
+        <v>1.44878270482479</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.27523541138619</v>
@@ -21313,7 +21205,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.483229907746559</v>
+        <v>1.435491696607039</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.322052401401267</v>
@@ -21402,7 +21294,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.367616835260116</v>
+        <v>1.326845375166997</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.608549024172568</v>
@@ -21491,7 +21383,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.349742983647147</v>
+        <v>1.308886749103591</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.643868656260139</v>
@@ -21580,7 +21472,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.344369174954794</v>
+        <v>1.308156401768193</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.656284583161889</v>
@@ -21669,7 +21561,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.332389613240867</v>
+        <v>1.294264072196617</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.683383068722053</v>
@@ -21758,7 +21650,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.31935586101647</v>
+        <v>1.285432395068337</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.66192462289312</v>
@@ -21847,7 +21739,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.319589905112549</v>
+        <v>1.287325842486701</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.661396391989258</v>
@@ -21936,7 +21828,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.3222664971609</v>
+        <v>1.294690376233255</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.65233331550934</v>
@@ -22025,7 +21917,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.320589643243953</v>
+        <v>1.291593285727483</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.644510209793636</v>
@@ -22114,7 +22006,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.32262729199356</v>
+        <v>1.294909827344281</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.649482133749935</v>
@@ -22203,7 +22095,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.322201791130069</v>
+        <v>1.295346469925246</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.657254884861394</v>
@@ -22292,7 +22184,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.325101241404293</v>
+        <v>1.300290558652084</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.644943102634117</v>
@@ -22381,7 +22273,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.287087159648914</v>
+        <v>1.267209382012358</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.674667987489035</v>
@@ -22470,7 +22362,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.27837465644796</v>
+        <v>1.261264753745754</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.691974274938586</v>
@@ -22559,7 +22451,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.282216934289902</v>
+        <v>1.266888670789566</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.702874340589262</v>
@@ -22648,7 +22540,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.291322244497604</v>
+        <v>1.273534486362943</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.658695783932744</v>
@@ -22737,7 +22629,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.317775894143912</v>
+        <v>1.301131561976221</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.701880440879261</v>
@@ -22826,7 +22718,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.296165597649588</v>
+        <v>1.292438315380055</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.751151277047224</v>
@@ -22915,7 +22807,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.290231485386895</v>
+        <v>1.287769946336164</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.744786555185242</v>
@@ -23004,7 +22896,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.308651635282475</v>
+        <v>1.306699656819826</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.753795747483867</v>
@@ -23093,7 +22985,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.297850095801157</v>
+        <v>1.307161121424901</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.758168518156707</v>
@@ -23182,7 +23074,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.244413180556763</v>
+        <v>1.237604184350614</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.561941578371789</v>
@@ -23271,7 +23163,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.238752576318604</v>
+        <v>1.209192393130966</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.671217166044014</v>
@@ -23557,7 +23449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.484552385039541</v>
+        <v>1.432685590811273</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.659427394409468</v>
@@ -23646,7 +23538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.480365066965852</v>
+        <v>1.43171348460861</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.596211069801469</v>
@@ -23735,7 +23627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.484347414163213</v>
+        <v>1.428440213943021</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.470517325718152</v>
@@ -23824,7 +23716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.480602402189372</v>
+        <v>1.431075856833444</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.641462605309588</v>
@@ -23913,7 +23805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.482375414579301</v>
+        <v>1.439278776091671</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.672909177764571</v>
@@ -24002,7 +23894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.493184923396031</v>
+        <v>1.454027590018918</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.350908566265092</v>
@@ -24091,7 +23983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.522844333905831</v>
+        <v>1.47735778570333</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.554931272610187</v>
@@ -24180,7 +24072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.524869115668947</v>
+        <v>1.477590043207113</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.425105188672326</v>
@@ -24269,7 +24161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537346506596852</v>
+        <v>1.493740651119036</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.555664989144172</v>
@@ -24358,7 +24250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522719876368053</v>
+        <v>1.483542240552685</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.588501307278567</v>
@@ -24447,7 +24339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501653416794933</v>
+        <v>1.466923168210641</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.567058586140748</v>
@@ -24536,7 +24428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.535798154764637</v>
+        <v>1.497254843470491</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.478723692611108</v>
@@ -24625,7 +24517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553718633872746</v>
+        <v>1.513603914844194</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.726787474344313</v>
@@ -24714,7 +24606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547216096798439</v>
+        <v>1.511922079907732</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.943311496848023</v>
@@ -24803,7 +24695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534688947038275</v>
+        <v>1.502134853633331</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.059076035256077</v>
@@ -24892,7 +24784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52779140505246</v>
+        <v>1.497576378439711</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.893288220680074</v>
@@ -24981,7 +24873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.52667723730056</v>
+        <v>1.489834995390722</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.750815085117601</v>
@@ -25070,7 +24962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541198270803571</v>
+        <v>1.482231397647719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.001411737938586</v>
@@ -25159,7 +25051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.517815328359801</v>
+        <v>1.454972460680676</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.932914545987139</v>
@@ -25248,7 +25140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.433135430556312</v>
+        <v>1.378312889813971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.795216880753411</v>
@@ -25337,7 +25229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.433225576614318</v>
+        <v>1.377110022823288</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.81212701956706</v>
@@ -25426,7 +25318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.434948651975261</v>
+        <v>1.382186159777985</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.801762429072912</v>
@@ -25515,7 +25407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.427380562602831</v>
+        <v>1.375069465974831</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.796003337030136</v>
@@ -25604,7 +25496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429527453703672</v>
+        <v>1.378682864980663</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.798562748777887</v>
@@ -25693,7 +25585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.436643529332852</v>
+        <v>1.381735704416888</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.763701782335543</v>
@@ -25782,7 +25674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.436949358882652</v>
+        <v>1.385672920114194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.792282187352824</v>
@@ -25871,7 +25763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.436043990218551</v>
+        <v>1.38552842541353</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.810215982476483</v>
@@ -25960,7 +25852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.435830484581381</v>
+        <v>1.385095306563536</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.80685115525681</v>
@@ -26049,7 +25941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.423817691136997</v>
+        <v>1.375409284569939</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.817244055040042</v>
@@ -26138,7 +26030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.423281755220827</v>
+        <v>1.374262460430605</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.842942537918482</v>
@@ -26227,7 +26119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425313613263802</v>
+        <v>1.375369287110233</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.815336941935965</v>
@@ -26316,7 +26208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.413844586555079</v>
+        <v>1.366569820764563</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.835850690986551</v>
@@ -26405,7 +26297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.385401928993848</v>
+        <v>1.354768796630595</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.798316832645883</v>
@@ -26494,7 +26386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.390308092899814</v>
+        <v>1.364638194208727</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.680095350565716</v>
@@ -26583,7 +26475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.462273413356198</v>
+        <v>1.441591332184311</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.332429628003851</v>
@@ -26672,7 +26564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.459452729147941</v>
+        <v>1.437846051681929</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.270810858028808</v>
@@ -26761,7 +26653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.462682641546426</v>
+        <v>1.441589326262561</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.301728841390597</v>
@@ -26850,7 +26742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.472389632424555</v>
+        <v>1.447530635262916</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.342979802426055</v>
@@ -26939,7 +26831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.458876434249171</v>
+        <v>1.433601394801424</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.309017432979937</v>
@@ -27028,7 +26920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.446875180589299</v>
+        <v>1.413824636772546</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.904317011819843</v>
@@ -27117,7 +27009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.422220946980417</v>
+        <v>1.395835204971119</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.056286137340029</v>
@@ -27206,7 +27098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.420842850262446</v>
+        <v>1.396550282633344</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.044132431596098</v>
@@ -27295,7 +27187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.409220830194819</v>
+        <v>1.385445718139804</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.006477627756417</v>
@@ -27384,7 +27276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.41659017640416</v>
+        <v>1.394216573524102</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.036228141885921</v>
@@ -27473,7 +27365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.424448078889944</v>
+        <v>1.40201299400874</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.049559055764073</v>
@@ -27562,7 +27454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.437876264353235</v>
+        <v>1.416013881787964</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.978182081178324</v>
@@ -27651,7 +27543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.45325722534356</v>
+        <v>1.426116803897266</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.967947094049064</v>
@@ -27740,7 +27632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.459454928277135</v>
+        <v>1.427187885574913</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.036600711859886</v>
@@ -27829,7 +27721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.45043209189535</v>
+        <v>1.419013860375146</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.004445038920982</v>
@@ -27918,7 +27810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.456289107393483</v>
+        <v>1.42064118490454</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.009453943479366</v>
@@ -28007,7 +27899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.437673904734826</v>
+        <v>1.40622047128907</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.060554048762324</v>
@@ -28096,7 +27988,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.430051876927504</v>
+        <v>1.393726277968027</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.086394747856472</v>
@@ -28185,7 +28077,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.431905393145847</v>
+        <v>1.390729322642256</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.04338499759945</v>
@@ -28274,7 +28166,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.429508285021614</v>
+        <v>1.385812939265413</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.029574810365632</v>
@@ -28363,7 +28255,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.434062606639617</v>
+        <v>1.389749994699776</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.368600275190711</v>
@@ -28452,7 +28344,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.446784392791768</v>
+        <v>1.405671635054629</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.465557393152183</v>
@@ -28541,7 +28433,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.450192291165771</v>
+        <v>1.410279406418488</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.325777924934768</v>
@@ -28630,7 +28522,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.471318250892167</v>
+        <v>1.425589516276849</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.405227587656996</v>
@@ -28719,7 +28611,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.444900867237575</v>
+        <v>1.41167991833935</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.698502112661815</v>
@@ -28808,7 +28700,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.348654293623351</v>
+        <v>1.321486797419277</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.757901632234425</v>
@@ -28897,7 +28789,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.336152687238331</v>
+        <v>1.313276502796259</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.705611942718669</v>
@@ -29183,7 +29075,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.359125396785495</v>
+        <v>1.32349010370549</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.187733823648919</v>
@@ -29272,7 +29164,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.359048648972256</v>
+        <v>1.323008503806578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.131134550530903</v>
@@ -29361,7 +29253,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.356604474485605</v>
+        <v>1.322118814902209</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.244112201252876</v>
@@ -29450,7 +29342,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.359418466213948</v>
+        <v>1.32622114937875</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.230223283521135</v>
@@ -29539,7 +29431,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.362596379693006</v>
+        <v>1.333450878935899</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.163826903003952</v>
@@ -29628,7 +29520,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.375292671345672</v>
+        <v>1.343146565380525</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.960305299761334</v>
@@ -29717,7 +29609,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39582812131548</v>
+        <v>1.359829904299604</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.005686498578424</v>
@@ -29806,7 +29698,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.40679077607678</v>
+        <v>1.362876707142328</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.074474502359261</v>
@@ -29895,7 +29787,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.423952800174855</v>
+        <v>1.377710635201025</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.171257224775498</v>
@@ -29984,7 +29876,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.420152824195595</v>
+        <v>1.376002154092367</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.096854126203275</v>
@@ -30073,7 +29965,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.408593894588556</v>
+        <v>1.366014104912919</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.214505526004623</v>
@@ -30162,7 +30054,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442946509103592</v>
+        <v>1.397262834915116</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.080793334369081</v>
@@ -30251,7 +30143,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.473483692998034</v>
+        <v>1.423719445414405</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.089352599471481</v>
@@ -30340,7 +30232,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.488695505722309</v>
+        <v>1.432808345978975</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.63017013128296</v>
@@ -30429,7 +30321,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.487946386677776</v>
+        <v>1.4279625929027</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.758121718897805</v>
@@ -30518,7 +30410,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491822115212806</v>
+        <v>1.432071274896718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.870706700854831</v>
@@ -30607,7 +30499,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496995689911734</v>
+        <v>1.436024193988679</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.584785642096577</v>
@@ -30696,7 +30588,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5115639527758</v>
+        <v>1.409927789415464</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.815692418164391</v>
@@ -30785,7 +30677,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.48028963480133</v>
+        <v>1.39097334413315</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.687328975954093</v>
@@ -30874,7 +30766,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.362084794488289</v>
+        <v>1.286254900319979</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.661217004981791</v>
@@ -30963,7 +30855,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.35295646270886</v>
+        <v>1.279011868067989</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.666328337866562</v>
@@ -31052,7 +30944,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.35337947467071</v>
+        <v>1.281693485294518</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.669787732654388</v>
@@ -31141,7 +31033,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.352275625421663</v>
+        <v>1.281943668937309</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.668448945083144</v>
@@ -31230,7 +31122,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.354651566039436</v>
+        <v>1.285090127638418</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.667036029792303</v>
@@ -31319,7 +31211,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.361699730231137</v>
+        <v>1.290326411082271</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.647799805114246</v>
@@ -31408,7 +31300,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.359899725040552</v>
+        <v>1.289580192246242</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.668980149662307</v>
@@ -31497,7 +31389,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.360082751602072</v>
+        <v>1.291188372333859</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.67403611672234</v>
@@ -31586,7 +31478,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.357725667221326</v>
+        <v>1.290086784019416</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.668594662774226</v>
@@ -31675,7 +31567,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.34724142088399</v>
+        <v>1.282634126807765</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.673167181815911</v>
@@ -31764,7 +31656,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.344312882698573</v>
+        <v>1.279791239603376</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.683790706201556</v>
@@ -31853,7 +31745,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.342913175136275</v>
+        <v>1.277363176790578</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.675937913059163</v>
@@ -31942,7 +31834,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.333879723398884</v>
+        <v>1.270175600914378</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.68584440092496</v>
@@ -32031,7 +31923,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.31118252501239</v>
+        <v>1.264271346013168</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.645398787873993</v>
@@ -32120,7 +32012,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.300117849181696</v>
+        <v>1.257976042937258</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.513494344383342</v>
@@ -32209,7 +32101,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.414813348250697</v>
+        <v>1.376956192265114</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.339982576954348</v>
@@ -32298,7 +32190,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.431382776175115</v>
+        <v>1.39272842282288</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.188495950253385</v>
@@ -32387,7 +32279,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.425970830003582</v>
+        <v>1.388819448268275</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.115696685690308</v>
@@ -32476,7 +32368,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.426472080926026</v>
+        <v>1.388032427494165</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.267803659837723</v>
@@ -32565,7 +32457,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.400296120251025</v>
+        <v>1.363947072755721</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.224941833706169</v>
@@ -32654,7 +32546,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.377105289423369</v>
+        <v>1.333922324705104</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.597009846474566</v>
@@ -32743,7 +32635,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.359994777994007</v>
+        <v>1.324185287328586</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.649255129928847</v>
@@ -32832,7 +32724,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.347867546445985</v>
+        <v>1.314121055784152</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.66006681183431</v>
@@ -32921,7 +32813,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.331832141412513</v>
+        <v>1.297497739821131</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.679302896107792</v>
@@ -33010,7 +32902,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.337249631075809</v>
+        <v>1.302974166151105</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.678957876261449</v>
@@ -33099,7 +32991,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.339709147748816</v>
+        <v>1.309598033214512</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.672811945812337</v>
@@ -33188,7 +33080,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.344167847929634</v>
+        <v>1.315111972724478</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.651847257040949</v>
@@ -33277,7 +33169,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.357745040525494</v>
+        <v>1.322829823110487</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.639142647248756</v>
@@ -33366,7 +33258,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.356910606251545</v>
+        <v>1.320637728357578</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.658680670098128</v>
@@ -33455,7 +33347,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.349380841948337</v>
+        <v>1.310825686864711</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.65541070970412</v>
@@ -33544,7 +33436,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.347955544826148</v>
+        <v>1.308019424725475</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.661632803833586</v>
@@ -33633,7 +33525,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.338323295440875</v>
+        <v>1.298404964460659</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.655569741680392</v>
@@ -33722,7 +33614,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.335052518588654</v>
+        <v>1.29487421638895</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.678263503096387</v>
@@ -33811,7 +33703,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.342390501344283</v>
+        <v>1.300081418581826</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.690979957986779</v>
@@ -33900,7 +33792,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.350926959502918</v>
+        <v>1.301269662154482</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.651833136495741</v>
@@ -33989,7 +33881,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.346112723832226</v>
+        <v>1.296280554309205</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.192610975068222</v>
@@ -34078,7 +33970,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.348448072089264</v>
+        <v>1.300171622919083</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.206582024796112</v>
@@ -34167,7 +34059,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.356894712245602</v>
+        <v>1.308383144941489</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.033128956771867</v>
@@ -34256,7 +34148,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.388886362069344</v>
+        <v>1.337406983650368</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.257190394161225</v>
@@ -34345,7 +34237,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.364110099740681</v>
+        <v>1.338122367450193</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.511000531135318</v>
@@ -34434,7 +34326,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.233709894435083</v>
+        <v>1.204746359963748</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.610719004479319</v>
@@ -34523,7 +34415,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.260976943907078</v>
+        <v>1.229679433562281</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.569043664597124</v>
@@ -34809,7 +34701,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.28435047592985</v>
+        <v>1.273186948629171</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.147495863158565</v>
@@ -34898,7 +34790,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.288335824806222</v>
+        <v>1.278105482798493</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.182318986760629</v>
@@ -34987,7 +34879,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.291521502000741</v>
+        <v>1.276894999333114</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.117541019577235</v>
@@ -35076,7 +34968,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.291359066258842</v>
+        <v>1.277329203600236</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.142993292680223</v>
@@ -35165,7 +35057,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.289402906308135</v>
+        <v>1.277407128480817</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.119721157946046</v>
@@ -35254,7 +35146,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.290384456393176</v>
+        <v>1.278960942142584</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.234583949584224</v>
@@ -35343,7 +35235,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.298829837134348</v>
+        <v>1.286512228872097</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.159025603867009</v>
@@ -35432,7 +35324,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.324396045835395</v>
+        <v>1.308132318719198</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.22942964693275</v>
@@ -35521,7 +35413,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.321157022823406</v>
+        <v>1.304877294886619</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.134136239830083</v>
@@ -35610,7 +35502,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.299759330658762</v>
+        <v>1.28727164985792</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.100294621900068</v>
@@ -35699,7 +35591,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.296922203411641</v>
+        <v>1.281114739271879</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.221274089217422</v>
@@ -35788,7 +35680,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.313898590507687</v>
+        <v>1.296835614435037</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.178413933838053</v>
@@ -35877,7 +35769,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.338383552232224</v>
+        <v>1.327581213993125</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.079349748251266</v>
@@ -35966,7 +35858,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.352529609544017</v>
+        <v>1.347154770513971</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.260022316030862</v>
@@ -36055,7 +35947,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.32381371672812</v>
+        <v>1.326926144936174</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.211521842168958</v>
@@ -36144,7 +36036,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.321241813752978</v>
+        <v>1.322707011412144</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.18227318402102</v>
@@ -36233,7 +36125,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.326606173613122</v>
+        <v>1.325239488739748</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.183561766907697</v>
@@ -36322,7 +36214,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.359678957884926</v>
+        <v>1.345431679603527</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.120168553429464</v>
@@ -36411,7 +36303,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.333667984951754</v>
+        <v>1.318251995871424</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.096493110972328</v>
@@ -36500,7 +36392,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.286068148991882</v>
+        <v>1.262294170247492</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.958626205502443</v>
@@ -36589,7 +36481,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.271278243982037</v>
+        <v>1.2580507808064</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.961587671240379</v>
@@ -36678,7 +36570,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.260572504180287</v>
+        <v>1.248989119080273</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.938137679712934</v>
@@ -36767,7 +36659,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.257463334753334</v>
+        <v>1.241250891954074</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.957456358933332</v>
@@ -36856,7 +36748,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.263661282551471</v>
+        <v>1.247764497360296</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.933107790451357</v>
@@ -36945,7 +36837,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.272915399910507</v>
+        <v>1.255843041471888</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.876515897865037</v>
@@ -37034,7 +36926,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.278455322768442</v>
+        <v>1.265428538750431</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.930238525792042</v>
@@ -37123,7 +37015,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.278147567073371</v>
+        <v>1.265413937354609</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.958599915473786</v>
@@ -37212,7 +37104,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.277935870400402</v>
+        <v>1.264658068256854</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.974079493843037</v>
@@ -37301,7 +37193,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.28612700330488</v>
+        <v>1.270226563790964</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.982626780352148</v>
@@ -37390,7 +37282,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.297611865214946</v>
+        <v>1.275340392540523</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.009411621681362</v>
@@ -37479,7 +37371,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.303955565029972</v>
+        <v>1.280592749469299</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.989708609397012</v>
@@ -37568,7 +37460,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.298705780753843</v>
+        <v>1.277688783687646</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.99341243841295</v>
@@ -37657,7 +37549,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.27410756175761</v>
+        <v>1.258974879029608</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.943220361217256</v>
@@ -37746,7 +37638,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.287359461467809</v>
+        <v>1.27414519812459</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.862115437659913</v>
@@ -37835,7 +37727,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.354124679257162</v>
+        <v>1.341536258165622</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.061414241884997</v>
@@ -37924,7 +37816,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.376860571364518</v>
+        <v>1.356517123797921</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.07876905584766</v>
@@ -38013,7 +37905,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.3721279302073</v>
+        <v>1.360211075312888</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.145437211714276</v>
@@ -38102,7 +37994,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.365293975568551</v>
+        <v>1.363381572330305</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.032916858213996</v>
@@ -38191,7 +38083,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.357951132522952</v>
+        <v>1.354505317494451</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.10188902444438</v>
@@ -38280,7 +38172,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.342851737611802</v>
+        <v>1.318166464394836</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.766440826982421</v>
@@ -38369,7 +38261,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.326086333675499</v>
+        <v>1.300700467636046</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.749767041778808</v>
@@ -38458,7 +38350,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.32926040189641</v>
+        <v>1.308378856978866</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.762224702143773</v>
@@ -38547,7 +38439,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.324512073875813</v>
+        <v>1.30031612739573</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.782292590709487</v>
@@ -38636,7 +38528,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.312637483562181</v>
+        <v>1.293559588236428</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.773743730480728</v>
@@ -38725,7 +38617,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.330168643904845</v>
+        <v>1.313637855162078</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.770155458203731</v>
@@ -38814,7 +38706,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.335688143940392</v>
+        <v>1.321790957142738</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.819361781877164</v>
@@ -38903,7 +38795,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.347162781450258</v>
+        <v>1.331999074812025</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.764658773137586</v>
@@ -38992,7 +38884,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.343613428712391</v>
+        <v>1.32823774523771</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.749681629172203</v>
@@ -39081,7 +38973,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.344426872534967</v>
+        <v>1.330013172986613</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.755384995467469</v>
@@ -39170,7 +39062,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.351570616468136</v>
+        <v>1.33607609963609</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.764970124560015</v>
@@ -39259,7 +39151,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.330175769448447</v>
+        <v>1.318850518291251</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.712303286958226</v>
@@ -39348,7 +39240,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.335596815000694</v>
+        <v>1.325481722840066</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.746708522801699</v>
@@ -39437,7 +39329,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.353507031497482</v>
+        <v>1.34063430671193</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.754193101221876</v>
@@ -39526,7 +39418,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.344492886691523</v>
+        <v>1.332842179580654</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.736514114625691</v>
@@ -39615,7 +39507,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.392587580988133</v>
+        <v>1.394861854510602</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.243426108557412</v>
@@ -39704,7 +39596,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.380889227223261</v>
+        <v>1.38645808248315</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.267794727975271</v>
@@ -39793,7 +39685,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.372452119387861</v>
+        <v>1.377977898183161</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.342048075600288</v>
@@ -39882,7 +39774,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.385480288603443</v>
+        <v>1.392714951894676</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.439800888623481</v>
@@ -39971,7 +39863,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.425465614296588</v>
+        <v>1.422434914666995</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.051815144990083</v>
@@ -40060,7 +39952,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.361220523357867</v>
+        <v>1.353726542326688</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.709233544216492</v>
@@ -40149,7 +40041,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.322065427944933</v>
+        <v>1.306833894722506</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.815283468993194</v>
